--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\presl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CF736-5F78-479A-8DDA-D28755E78ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6133222-9D4D-4012-B5D4-0EC1BBECEF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -128,23 +128,77 @@
     <t>ERD</t>
   </si>
   <si>
-    <t>Database vullen</t>
-  </si>
-  <si>
-    <t>Query maken</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Usecase diagram</t>
+  </si>
+  <si>
+    <t>hoofdpagina</t>
+  </si>
+  <si>
+    <t>acceptatietest</t>
+  </si>
+  <si>
+    <t>class-diagram klant</t>
+  </si>
+  <si>
+    <t>wireframe</t>
+  </si>
+  <si>
+    <t>query maken</t>
+  </si>
+  <si>
+    <t>database vullen</t>
+  </si>
+  <si>
+    <t>phpunit-testen</t>
+  </si>
+  <si>
+    <t>subpagina</t>
+  </si>
+  <si>
+    <t>wireframe voor elke userstory</t>
+  </si>
+  <si>
+    <t>breid class-diagram uit</t>
+  </si>
+  <si>
+    <t>pagina van elke user story</t>
+  </si>
+  <si>
+    <t>maak acceptatietest</t>
+  </si>
+  <si>
+    <t>maak phpunit-testen</t>
+  </si>
+  <si>
+    <t>pagina van elke user story volgens wireframe</t>
+  </si>
+  <si>
+    <t>wireframe voor elke userstory volgens wireframe</t>
+  </si>
+  <si>
+    <t>maak wireframe voor elke user story</t>
+  </si>
+  <si>
+    <t>acceptatietest van elke userstory</t>
+  </si>
+  <si>
+    <t>voer acceptatietest uit en vul het resultaat in</t>
+  </si>
+  <si>
+    <t>maak filmpje waarin code werkt</t>
+  </si>
+  <si>
+    <t>maak filmpje waarin code en unittest werkt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,19 +248,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -240,66 +281,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -314,52 +295,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,47 +309,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$24</c:f>
+              <c:f>BurndownChart!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -610,33 +521,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$24:$I$24</c:f>
+              <c:f>BurndownChart!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,7 +564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$25</c:f>
+              <c:f>BurndownChart!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -736,33 +647,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$25:$I$25</c:f>
+              <c:f>BurndownChart!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>53</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.428571428571431</c:v>
+                  <c:v>88.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.857142857142861</c:v>
+                  <c:v>73.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.285714285714292</c:v>
+                  <c:v>58.857142857142868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.714285714285722</c:v>
+                  <c:v>44.142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.142857142857151</c:v>
+                  <c:v>29.428571428571438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5714285714285801</c:v>
+                  <c:v>14.714285714285724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8817841970012523E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,48 +1825,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="3" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="7">
         <v>45408</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="7">
         <v>45427</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="7">
         <v>45434</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="7">
         <v>45441</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="7">
         <v>45448</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="7">
         <v>45455</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="12">
         <v>45462</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1979,12 +1890,12 @@
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -1998,11 +1909,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="21" t="s">
-        <v>33</v>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2015,14 +1926,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -2032,10 +1943,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="21" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
@@ -2049,10 +1960,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="21" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
@@ -2060,16 +1971,16 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1">
@@ -2077,50 +1988,50 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23" t="s">
-        <v>30</v>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23" t="s">
-        <v>31</v>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="21" t="s">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
@@ -2129,135 +2040,135 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
-        <v>17</v>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="21" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="21" t="s">
-        <v>19</v>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
-        <v>22</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
-        <v>24</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -2265,153 +2176,578 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="21" t="s">
-        <v>25</v>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="21" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="21" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1">
-      <c r="A23" s="24" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8">
-        <f>SUM(B3:B23)</f>
-        <v>53</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" ref="C24:I24" si="0">B$24-SUM(C3:C23)</f>
-        <v>47</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1">
-      <c r="A25" s="11" t="s">
+      <c r="B49" s="1">
+        <f>SUM(B3:B48)</f>
+        <v>103</v>
+      </c>
+      <c r="C49" s="2">
+        <f>B$49-SUM(C3:C46)</f>
+        <v>97</v>
+      </c>
+      <c r="D49" s="2">
+        <f>C$49-SUM(D3:D46)</f>
+        <v>97</v>
+      </c>
+      <c r="E49" s="2">
+        <f>D$49-SUM(E3:E46)</f>
+        <v>97</v>
+      </c>
+      <c r="F49" s="2">
+        <f>E$49-SUM(F3:F46)</f>
+        <v>97</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F$49-SUM(G3:G46)</f>
+        <v>97</v>
+      </c>
+      <c r="H49" s="2">
+        <f>G$49-SUM(H3:H46)</f>
+        <v>97</v>
+      </c>
+      <c r="I49" s="2">
+        <f>H$49-SUM(I3:I46)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="12">
-        <f>B24</f>
-        <v>53</v>
-      </c>
-      <c r="C25" s="13">
-        <f t="shared" ref="C25:I25" si="1">B$25-$B$25/COUNT($C$1:$I$1)</f>
-        <v>45.428571428571431</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="1"/>
-        <v>37.857142857142861</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="1"/>
-        <v>30.285714285714292</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="1"/>
-        <v>22.714285714285722</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="1"/>
-        <v>15.142857142857151</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="1"/>
-        <v>7.5714285714285801</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>8.8817841970012523E-15</v>
+      <c r="B50" s="1">
+        <f>B49</f>
+        <v>103</v>
+      </c>
+      <c r="C50" s="11">
+        <f>B$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>88.285714285714292</v>
+      </c>
+      <c r="D50" s="11">
+        <f>C$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>73.571428571428584</v>
+      </c>
+      <c r="E50" s="11">
+        <f>D$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>58.857142857142868</v>
+      </c>
+      <c r="F50" s="11">
+        <f>E$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>44.142857142857153</v>
+      </c>
+      <c r="G50" s="11">
+        <f>F$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>29.428571428571438</v>
+      </c>
+      <c r="H50" s="11">
+        <f>G$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>14.714285714285724</v>
+      </c>
+      <c r="I50" s="11">
+        <f>H$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6133222-9D4D-4012-B5D4-0EC1BBECEF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B0A20-D556-4CCD-9FE3-F8CA87F11D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,7 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,7 +412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -526,28 +525,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,28 +651,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>103</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.285714285714292</c:v>
+                  <c:v>89.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.571428571428584</c:v>
+                  <c:v>74.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.857142857142868</c:v>
+                  <c:v>59.428571428571416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.142857142857153</c:v>
+                  <c:v>44.571428571428555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.428571428571438</c:v>
+                  <c:v>29.714285714285698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.714285714285724</c:v>
+                  <c:v>14.85714285714284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.7763568394002505E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -811,7 +810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -863,7 +862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -900,7 +899,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1828,17 +1827,17 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="3" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="3" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1861,11 +1860,11 @@
       <c r="H1" s="7">
         <v>45455</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>45462</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1910,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +1927,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1970,8 +1969,8 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
+      <c r="D7" s="2">
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1979,7 +1978,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,8 +1986,8 @@
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
+      <c r="D8" s="2">
+        <v>2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1996,7 +1995,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2004,8 +2003,8 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2013,16 +2012,16 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+      <c r="D10" s="2">
+        <v>3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2030,7 +2029,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2047,7 +2046,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2064,7 +2063,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2081,7 +2080,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2097,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +2114,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2148,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +2165,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2182,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2234,7 +2233,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2268,7 +2267,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2285,7 +2284,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2302,7 +2301,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
@@ -2319,8 +2318,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="1">
@@ -2336,8 +2335,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="1">
@@ -2353,7 +2352,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2370,8 +2369,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="1">
@@ -2387,8 +2386,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="1">
@@ -2404,7 +2403,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -2421,8 +2420,8 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="1">
@@ -2438,7 +2437,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2455,8 +2454,8 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="1">
@@ -2472,7 +2471,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -2489,8 +2488,8 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="1">
@@ -2506,7 +2505,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -2523,8 +2522,8 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="1">
@@ -2540,7 +2539,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2556,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2676,78 +2675,78 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="1">
         <f>SUM(B3:B48)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2">
-        <f>B$49-SUM(C3:C46)</f>
-        <v>97</v>
+        <f t="shared" ref="C49:I49" si="0">B$49-SUM(C3:C46)</f>
+        <v>98</v>
       </c>
       <c r="D49" s="2">
-        <f>C$49-SUM(D3:D46)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="E49" s="2">
-        <f>D$49-SUM(E3:E46)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="F49" s="2">
-        <f>E$49-SUM(F3:F46)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="G49" s="2">
-        <f>F$49-SUM(G3:G46)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="H49" s="2">
-        <f>G$49-SUM(H3:H46)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="I49" s="2">
-        <f>H$49-SUM(I3:I46)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="1">
         <f>B49</f>
-        <v>103</v>
-      </c>
-      <c r="C50" s="11">
-        <f>B$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>88.285714285714292</v>
-      </c>
-      <c r="D50" s="11">
-        <f>C$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>73.571428571428584</v>
-      </c>
-      <c r="E50" s="11">
-        <f>D$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>58.857142857142868</v>
-      </c>
-      <c r="F50" s="11">
-        <f>E$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>44.142857142857153</v>
-      </c>
-      <c r="G50" s="11">
-        <f>F$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>29.428571428571438</v>
-      </c>
-      <c r="H50" s="11">
-        <f>G$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>14.714285714285724</v>
-      </c>
-      <c r="I50" s="11">
-        <f>H$50-$B$50/COUNT($C$1:$I$1)</f>
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" ref="C50:I50" si="1">B$50-$B$50/COUNT($C$1:$I$1)</f>
+        <v>89.142857142857139</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="1"/>
+        <v>74.285714285714278</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="1"/>
+        <v>59.428571428571416</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="1"/>
+        <v>44.571428571428555</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="1"/>
+        <v>29.714285714285698</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="1"/>
+        <v>14.85714285714284</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.7763568394002505E-14</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B0A20-D556-4CCD-9FE3-F8CA87F11D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD84C45D-7499-40E9-BBDA-8C4AC3BE9E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -534,19 +534,19 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,8 +2038,8 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
+      <c r="E11" s="2">
+        <v>3</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2055,8 +2055,8 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
+      <c r="E12" s="2">
+        <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2072,8 +2072,8 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
+      <c r="E13" s="2">
+        <v>2</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2089,8 +2089,8 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
+      <c r="E14" s="2">
+        <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2106,8 +2106,8 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
+      <c r="E15" s="2">
+        <v>3</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2123,8 +2123,8 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
+      <c r="E16" s="2">
+        <v>2</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2140,8 +2140,8 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
+      <c r="E17" s="2">
+        <v>3</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2157,8 +2157,8 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2693,23 +2693,23 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD84C45D-7499-40E9-BBDA-8C4AC3BE9E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A14E61-069E-4FA4-B820-48E9477EFE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -537,16 +537,16 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,8 +2175,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
+      <c r="F19" s="2">
+        <v>3</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2192,8 +2192,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>30</v>
+      <c r="F20" s="2">
+        <v>2</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2209,8 +2209,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
+      <c r="F21" s="2">
+        <v>3</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2226,8 +2226,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
-        <v>30</v>
+      <c r="F22" s="2">
+        <v>2</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2243,8 +2243,8 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
+      <c r="F23" s="2">
+        <v>2</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2260,8 +2260,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
+      <c r="F24" s="2">
+        <v>2</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2277,8 +2277,8 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
+      <c r="F25" s="2">
+        <v>2</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2294,8 +2294,8 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
+      <c r="F26" s="2">
+        <v>1</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2697,19 +2697,19 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A14E61-069E-4FA4-B820-48E9477EFE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7920A20-49B0-40B1-8C45-7C364B79E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -540,13 +540,13 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,8 +2312,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>30</v>
+      <c r="G27" s="2">
+        <v>2</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2329,8 +2329,8 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="2" t="s">
-        <v>30</v>
+      <c r="G28" s="2">
+        <v>2</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2346,8 +2346,8 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
+      <c r="G29" s="2">
+        <v>1</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2363,8 +2363,8 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
+      <c r="G30" s="2">
+        <v>5</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2380,8 +2380,8 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="2" t="s">
-        <v>30</v>
+      <c r="G31" s="2">
+        <v>3</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2397,8 +2397,8 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="2" t="s">
-        <v>30</v>
+      <c r="G32" s="2">
+        <v>2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2414,8 +2414,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
+      <c r="G33" s="2">
+        <v>4</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2431,8 +2431,8 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="2" t="s">
-        <v>30</v>
+      <c r="G34" s="2">
+        <v>2</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2701,15 +2701,15 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,6 +2758,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3006,16 +3015,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3032,12 +3040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7920A20-49B0-40B1-8C45-7C364B79E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66039FF-C852-4E93-B679-9F6BD79A9BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Taak</t>
   </si>
@@ -543,10 +543,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,8 +2449,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>30</v>
+      <c r="H35" s="2">
+        <v>3</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2466,8 +2466,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="2" t="s">
-        <v>30</v>
+      <c r="H36" s="2">
+        <v>2</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -2483,8 +2483,8 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>30</v>
+      <c r="H37" s="2">
+        <v>3</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2500,8 +2500,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="2" t="s">
-        <v>30</v>
+      <c r="H38" s="2">
+        <v>2</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -2517,8 +2517,8 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>30</v>
+      <c r="H39" s="2">
+        <v>3</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2534,8 +2534,8 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="2" t="s">
-        <v>30</v>
+      <c r="H40" s="2">
+        <v>2</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -2551,8 +2551,8 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>30</v>
+      <c r="H41" s="2">
+        <v>3</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2705,11 +2705,11 @@
       </c>
       <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,15 +2758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3015,15 +3006,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3040,4 +3032,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Requirements and planning/Burndown_bas.xlsx
+++ b/Requirements and planning/Burndown_bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bas_project\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66039FF-C852-4E93-B679-9F6BD79A9BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7424BA6-82AA-41C6-AC87-555A7FDFF732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Taak</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>ERD</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Usecase diagram</t>
@@ -546,7 +543,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2048,7 +2045,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2184,7 +2181,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2252,7 +2249,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -2371,7 +2368,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2456,7 +2453,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -2524,7 +2521,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2569,13 +2566,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>30</v>
+      <c r="I42" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2586,8 +2583,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="2" t="s">
-        <v>30</v>
+      <c r="I43" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,13 +2600,13 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>30</v>
+      <c r="I44" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2620,8 +2617,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="2" t="s">
-        <v>30</v>
+      <c r="I45" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2637,13 +2634,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>30</v>
+      <c r="I46" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -2654,13 +2651,13 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="2" t="s">
-        <v>30</v>
+      <c r="I47" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -2671,8 +2668,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="2" t="s">
-        <v>30</v>
+      <c r="I48" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,7 +2706,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,6 +2755,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3006,16 +3012,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3032,12 +3037,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>